--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam12-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam12-Itga9.xlsx
@@ -534,16 +534,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.958141333333334</v>
+        <v>0.2162966666666667</v>
       </c>
       <c r="H2">
-        <v>5.874424</v>
+        <v>0.6488900000000001</v>
       </c>
       <c r="I2">
-        <v>0.1445807708852573</v>
+        <v>0.02888548604596741</v>
       </c>
       <c r="J2">
-        <v>0.1445807708852573</v>
+        <v>0.0288854860459674</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N2">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P2">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q2">
-        <v>2.737548160805333</v>
+        <v>0.1809548007177778</v>
       </c>
       <c r="R2">
-        <v>24.637933447248</v>
+        <v>1.62859320646</v>
       </c>
       <c r="S2">
-        <v>0.02010638118367546</v>
+        <v>0.002318256672495586</v>
       </c>
       <c r="T2">
-        <v>0.02010638118367546</v>
+        <v>0.002318256672495585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.958141333333334</v>
+        <v>0.2162966666666667</v>
       </c>
       <c r="H3">
-        <v>5.874424</v>
+        <v>0.6488900000000001</v>
       </c>
       <c r="I3">
-        <v>0.1445807708852573</v>
+        <v>0.02888548604596741</v>
       </c>
       <c r="J3">
-        <v>0.1445807708852573</v>
+        <v>0.0288854860459674</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N3">
         <v>23.817751</v>
       </c>
       <c r="O3">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P3">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q3">
-        <v>15.54617423338045</v>
+        <v>1.717233382932222</v>
       </c>
       <c r="R3">
-        <v>139.915568100424</v>
+        <v>15.45510044639</v>
       </c>
       <c r="S3">
-        <v>0.1141814816482449</v>
+        <v>0.02199990125945126</v>
       </c>
       <c r="T3">
-        <v>0.1141814816482449</v>
+        <v>0.02199990125945126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.958141333333334</v>
+        <v>0.2162966666666667</v>
       </c>
       <c r="H4">
-        <v>5.874424</v>
+        <v>0.6488900000000001</v>
       </c>
       <c r="I4">
-        <v>0.1445807708852573</v>
+        <v>0.02888548604596741</v>
       </c>
       <c r="J4">
-        <v>0.1445807708852573</v>
+        <v>0.0288854860459674</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N4">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O4">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P4">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q4">
-        <v>1.401412380146667</v>
+        <v>0.35650925046</v>
       </c>
       <c r="R4">
-        <v>12.61271142132</v>
+        <v>3.208583254140001</v>
       </c>
       <c r="S4">
-        <v>0.01029290805333688</v>
+        <v>0.004567328114020564</v>
       </c>
       <c r="T4">
-        <v>0.01029290805333688</v>
+        <v>0.004567328114020564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.499009</v>
       </c>
       <c r="I5">
-        <v>0.4306839633891008</v>
+        <v>0.7789723686414617</v>
       </c>
       <c r="J5">
-        <v>0.4306839633891009</v>
+        <v>0.7789723686414615</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N5">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P5">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q5">
-        <v>8.154736516102</v>
+        <v>4.879917530480667</v>
       </c>
       <c r="R5">
-        <v>73.39262864491801</v>
+        <v>43.919257774326</v>
       </c>
       <c r="S5">
-        <v>0.05989382878909788</v>
+        <v>0.06251782948775648</v>
       </c>
       <c r="T5">
-        <v>0.05989382878909789</v>
+        <v>0.06251782948775647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.499009</v>
       </c>
       <c r="I6">
-        <v>0.4306839633891008</v>
+        <v>0.7789723686414617</v>
       </c>
       <c r="J6">
-        <v>0.4306839633891009</v>
+        <v>0.7789723686414615</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N6">
         <v>23.817751</v>
       </c>
       <c r="O6">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P6">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q6">
         <v>46.30967101208434</v>
@@ -818,10 +818,10 @@
         <v>416.787039108759</v>
       </c>
       <c r="S6">
-        <v>0.3401291386178412</v>
+        <v>0.5932846401366162</v>
       </c>
       <c r="T6">
-        <v>0.3401291386178412</v>
+        <v>0.5932846401366161</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.499009</v>
       </c>
       <c r="I7">
-        <v>0.4306839633891008</v>
+        <v>0.7789723686414617</v>
       </c>
       <c r="J7">
-        <v>0.4306839633891009</v>
+        <v>0.7789723686414615</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N7">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O7">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P7">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q7">
-        <v>4.174592752055</v>
+        <v>9.614200530726</v>
       </c>
       <c r="R7">
-        <v>37.571334768495</v>
+        <v>86.52780477653401</v>
       </c>
       <c r="S7">
-        <v>0.03066099598216175</v>
+        <v>0.123169899017089</v>
       </c>
       <c r="T7">
-        <v>0.03066099598216175</v>
+        <v>0.123169899017089</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.752436333333333</v>
+        <v>1.438774666666667</v>
       </c>
       <c r="H8">
-        <v>17.257309</v>
+        <v>4.316324</v>
       </c>
       <c r="I8">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="J8">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.398034</v>
+        <v>0.8366046666666667</v>
       </c>
       <c r="N8">
-        <v>4.194102</v>
+        <v>2.509814</v>
       </c>
       <c r="O8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="P8">
-        <v>0.139066772576779</v>
+        <v>0.08025679986157715</v>
       </c>
       <c r="Q8">
-        <v>8.042101576835332</v>
+        <v>1.203685600415111</v>
       </c>
       <c r="R8">
-        <v>72.37891419151799</v>
+        <v>10.833170403736</v>
       </c>
       <c r="S8">
-        <v>0.05906656260400562</v>
+        <v>0.01542071370132508</v>
       </c>
       <c r="T8">
-        <v>0.05906656260400563</v>
+        <v>0.01542071370132508</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.752436333333333</v>
+        <v>1.438774666666667</v>
       </c>
       <c r="H9">
-        <v>17.257309</v>
+        <v>4.316324</v>
       </c>
       <c r="I9">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="J9">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.939250333333334</v>
+        <v>7.939250333333333</v>
       </c>
       <c r="N9">
         <v>23.817751</v>
       </c>
       <c r="O9">
-        <v>0.7897418235434784</v>
+        <v>0.7616247559221037</v>
       </c>
       <c r="P9">
-        <v>0.7897418235434783</v>
+        <v>0.7616247559221038</v>
       </c>
       <c r="Q9">
-        <v>45.67003207689545</v>
+        <v>11.42279225192489</v>
       </c>
       <c r="R9">
-        <v>411.030288692059</v>
+        <v>102.805130267324</v>
       </c>
       <c r="S9">
-        <v>0.3354312032773923</v>
+        <v>0.1463402145260362</v>
       </c>
       <c r="T9">
-        <v>0.3354312032773923</v>
+        <v>0.1463402145260363</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.752436333333333</v>
+        <v>1.438774666666667</v>
       </c>
       <c r="H10">
-        <v>17.257309</v>
+        <v>4.316324</v>
       </c>
       <c r="I10">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="J10">
-        <v>0.4247352657256419</v>
+        <v>0.192142145312571</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.715685</v>
+        <v>1.648242</v>
       </c>
       <c r="N10">
-        <v>2.147055</v>
+        <v>4.944726</v>
       </c>
       <c r="O10">
-        <v>0.0711914038797426</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="P10">
-        <v>0.07119140387974258</v>
+        <v>0.1581184442163192</v>
       </c>
       <c r="Q10">
-        <v>4.116932397221666</v>
+        <v>2.371448834136</v>
       </c>
       <c r="R10">
-        <v>37.052391574995</v>
+        <v>21.343039507224</v>
       </c>
       <c r="S10">
-        <v>0.03023749984424396</v>
+        <v>0.03038121708520965</v>
       </c>
       <c r="T10">
-        <v>0.03023749984424396</v>
+        <v>0.03038121708520965</v>
       </c>
     </row>
   </sheetData>
